--- a/results/makespan/empty-32-32-condensed-1_A_priority1-static.xlsx
+++ b/results/makespan/empty-32-32-condensed-1_A_priority1-static.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,31 +510,31 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.0200044</v>
+        <v>0.0169433</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1187839</v>
+        <v>0.1036413</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001481</v>
+        <v>0.0014369</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0011112</v>
+        <v>0.0011086</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0089067</v>
+        <v>3.6850916</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0036667</v>
+        <v>1.6420217</v>
       </c>
       <c r="J2" t="n">
         <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4167106999084353</v>
+        <v>5.856516599887982</v>
       </c>
       <c r="L2" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
@@ -552,31 +552,31 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.0025952</v>
+        <v>0.0028899</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1147911</v>
+        <v>0.1294894</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001393</v>
+        <v>0.0018831</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0024272</v>
+        <v>0.0028217</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0161288</v>
+        <v>7.7838092</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0059748</v>
+        <v>5.0492125</v>
       </c>
       <c r="J3" t="n">
         <v>10</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3532426999881864</v>
+        <v>13.52489120000973</v>
       </c>
       <c r="L3" t="n">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
@@ -594,31 +594,31 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.0024281</v>
+        <v>0.0026749</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0973212</v>
+        <v>0.088514</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0012218</v>
+        <v>0.0011633</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0025379</v>
+        <v>0.0027779</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0171639</v>
+        <v>11.9636818</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0062096</v>
+        <v>9.9131792</v>
       </c>
       <c r="J4" t="n">
         <v>10</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3270513999741524</v>
+        <v>22.82485010009259</v>
       </c>
       <c r="L4" t="n">
-        <v>107</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
@@ -636,31 +636,31 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.0026611</v>
+        <v>0.0024665</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0957422</v>
+        <v>0.0934049</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0012558</v>
+        <v>0.0012435</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0031992</v>
+        <v>0.0034225</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0208008</v>
+        <v>16.6003779</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0063335</v>
+        <v>14.8484401</v>
       </c>
       <c r="J5" t="n">
         <v>10</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4036208000034094</v>
+        <v>32.60185780003667</v>
       </c>
       <c r="L5" t="n">
-        <v>154</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6">
@@ -678,31 +678,31 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.0027594</v>
+        <v>0.0036129</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0892541</v>
+        <v>0.1116296</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0011571</v>
+        <v>0.0015126</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0052694</v>
+        <v>0.0053343</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0376954</v>
+        <v>18.7996741</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0100976</v>
+        <v>22.4085764</v>
       </c>
       <c r="J6" t="n">
         <v>10</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3508433999959379</v>
+        <v>42.83012989978306</v>
       </c>
       <c r="L6" t="n">
-        <v>111</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
@@ -720,31 +720,31 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.0026289</v>
+        <v>0.0023169</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1048102</v>
+        <v>0.08076750000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0011962</v>
+        <v>0.0009299</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0072519</v>
+        <v>0.0060345</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0586597</v>
+        <v>21.0345156</v>
       </c>
       <c r="I7" t="n">
-        <v>0.016235</v>
+        <v>24.5350193</v>
       </c>
       <c r="J7" t="n">
         <v>11</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7643513998482376</v>
+        <v>90.12344439979643</v>
       </c>
       <c r="L7" t="n">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="8">
@@ -762,31 +762,31 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.0025105</v>
+        <v>0.0024605</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1077745</v>
+        <v>0.0991751</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0014033</v>
+        <v>0.0013019</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0061564</v>
+        <v>0.0056391</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0389202</v>
+        <v>23.1507759</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0108257</v>
+        <v>32.113472</v>
       </c>
       <c r="J8" t="n">
         <v>10</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3789564000908285</v>
+        <v>57.34474550001323</v>
       </c>
       <c r="L8" t="n">
-        <v>177</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
@@ -804,31 +804,31 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.0025983</v>
+        <v>0.0024584</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1089926</v>
+        <v>0.0822933</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0014523</v>
+        <v>0.0009619</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0086616</v>
+        <v>0.0071469</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0717806</v>
+        <v>25.3565067</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0219625</v>
+        <v>36.6294806</v>
       </c>
       <c r="J9" t="n">
         <v>11</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8044668000657111</v>
+        <v>121.8709360999055</v>
       </c>
       <c r="L9" t="n">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="10">
@@ -846,28 +846,28 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.0023097</v>
+        <v>0.0023319</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0947448</v>
+        <v>0.08275159999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0012502</v>
+        <v>0.0010029</v>
       </c>
       <c r="G10" t="n">
-        <v>0.006052</v>
+        <v>0.0049709</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0396044</v>
+        <v>26.7147823</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0055341</v>
+        <v>41.9692168</v>
       </c>
       <c r="J10" t="n">
         <v>10</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3490830000955611</v>
+        <v>71.45009870012291</v>
       </c>
       <c r="L10" t="inlineStr"/>
     </row>
@@ -886,31 +886,31 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.0026397</v>
+        <v>0.0048408</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1000011</v>
+        <v>0.1363553</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001261</v>
+        <v>0.001735</v>
       </c>
       <c r="G11" t="n">
-        <v>0.009463600000000001</v>
+        <v>0.0156411</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0821223</v>
+        <v>31.6046979</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0263813</v>
+        <v>53.2406777</v>
       </c>
       <c r="J11" t="n">
         <v>11</v>
       </c>
       <c r="K11" t="n">
-        <v>0.7895831998903304</v>
+        <v>159.5479965002742</v>
       </c>
       <c r="L11" t="n">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.0028024</v>
+        <v>0.0186545</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1224284</v>
+        <v>0.1555373</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0015488</v>
+        <v>0.0015339</v>
       </c>
       <c r="G12" t="n">
-        <v>0.018998</v>
+        <v>0.0148902</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2226684</v>
+        <v>33.1694863</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0607833</v>
+        <v>52.7642273</v>
       </c>
       <c r="J12" t="n">
         <v>12</v>
       </c>
       <c r="K12" t="n">
-        <v>1.460886599728838</v>
+        <v>249.6254399002064</v>
       </c>
       <c r="L12" t="n">
-        <v>1193</v>
+        <v>750</v>
       </c>
     </row>
     <row r="13">
@@ -970,28 +970,28 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.0025737</v>
+        <v>0.0025285</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1272889</v>
+        <v>0.1087498</v>
       </c>
       <c r="F13" t="n">
-        <v>0.001642</v>
+        <v>0.0017182</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0073911</v>
+        <v>0.0102884</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0435175</v>
+        <v>31.5853963</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0078995</v>
+        <v>55.6182718</v>
       </c>
       <c r="J13" t="n">
         <v>10</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4043971002101898</v>
+        <v>90.83547729998827</v>
       </c>
       <c r="L13" t="inlineStr"/>
     </row>
@@ -1010,31 +1010,31 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.0023053</v>
+        <v>0.0031191</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0856301</v>
+        <v>0.094871</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0011217</v>
+        <v>0.0012144</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0100222</v>
+        <v>0.0113322</v>
       </c>
       <c r="H14" t="n">
-        <v>0.08297400000000001</v>
+        <v>42.0927423</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0193821</v>
+        <v>61.6588035</v>
       </c>
       <c r="J14" t="n">
         <v>11</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8075664001516998</v>
+        <v>198.9463198001031</v>
       </c>
       <c r="L14" t="n">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15">
@@ -1051,33 +1051,19 @@
           <t>A_priority1</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>0.0023556</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.0845229</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.0012466</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.020565</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.2320214</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.084603</v>
-      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
         <v>12</v>
       </c>
       <c r="K15" t="n">
-        <v>1.463919900124893</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1594</v>
-      </c>
+        <v>300.0262274001725</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1086,7 +1072,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1094,30 +1080,32 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.0023407</v>
+        <v>0.0166364</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1678314</v>
+        <v>0.0991792</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0027761</v>
+        <v>0.001202</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0115922</v>
+        <v>0.0009216</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1251588</v>
+        <v>3.7458674</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0119908</v>
+        <v>1.5811083</v>
       </c>
       <c r="J16" t="n">
         <v>10</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5751642000395805</v>
-      </c>
-      <c r="L16" t="inlineStr"/>
+        <v>5.879957000026479</v>
+      </c>
+      <c r="L16" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1126,7 +1114,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1134,31 +1122,31 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.0027121</v>
+        <v>0.0023941</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1421099</v>
+        <v>0.0839739</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0021459</v>
+        <v>0.0010103</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0178242</v>
+        <v>0.0015509</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1386764</v>
+        <v>7.9796407</v>
       </c>
       <c r="I17" t="n">
-        <v>0.032588</v>
+        <v>5.8075262</v>
       </c>
       <c r="J17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K17" t="n">
-        <v>1.137051000026986</v>
+        <v>14.47478950000368</v>
       </c>
       <c r="L17" t="n">
-        <v>15</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18">
@@ -1168,7 +1156,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1176,31 +1164,31 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.0025101</v>
+        <v>0.0027796</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1049276</v>
+        <v>0.0950834</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0013203</v>
+        <v>0.001064</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0193148</v>
+        <v>0.0019948</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2449174</v>
+        <v>11.4734259</v>
       </c>
       <c r="I18" t="n">
-        <v>0.071633</v>
+        <v>9.1536431</v>
       </c>
       <c r="J18" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K18" t="n">
-        <v>1.815735600190237</v>
+        <v>21.53753899992444</v>
       </c>
       <c r="L18" t="n">
-        <v>1456</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19">
@@ -1210,7 +1198,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1218,30 +1206,32 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.0025511</v>
+        <v>0.0021125</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1091126</v>
+        <v>0.0806259</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0018864</v>
+        <v>0.0010449</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0117297</v>
+        <v>0.0030207</v>
       </c>
       <c r="H19" t="n">
-        <v>0.06885090000000001</v>
+        <v>15.1681067</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0072632</v>
+        <v>16.5509917</v>
       </c>
       <c r="J19" t="n">
         <v>10</v>
       </c>
       <c r="K19" t="n">
-        <v>0.4122486999258399</v>
-      </c>
-      <c r="L19" t="inlineStr"/>
+        <v>32.8819842999801</v>
+      </c>
+      <c r="L19" t="n">
+        <v>123</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1250,7 +1240,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1258,31 +1248,31 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.0028635</v>
+        <v>0.00232</v>
       </c>
       <c r="E20" t="n">
-        <v>0.097153</v>
+        <v>0.09089469999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0017075</v>
+        <v>0.0010132</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0144119</v>
+        <v>0.0038286</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1140199</v>
+        <v>18.6889029</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0317102</v>
+        <v>22.0244595</v>
       </c>
       <c r="J20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K20" t="n">
-        <v>0.8942884998396039</v>
+        <v>42.30479090008885</v>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21">
@@ -1292,7 +1282,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1300,31 +1290,31 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.0024135</v>
+        <v>0.0022883</v>
       </c>
       <c r="E21" t="n">
-        <v>0.09852660000000001</v>
+        <v>0.0794077</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0013679</v>
+        <v>0.0010822</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0256196</v>
+        <v>0.0061764</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2980756</v>
+        <v>20.9823476</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0890759</v>
+        <v>24.7142089</v>
       </c>
       <c r="J21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K21" t="n">
-        <v>1.637342699803412</v>
+        <v>89.84953790018335</v>
       </c>
       <c r="L21" t="n">
-        <v>1582</v>
+        <v>395</v>
       </c>
     </row>
     <row r="22">
@@ -1334,7 +1324,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1342,30 +1332,32 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.0025345</v>
+        <v>0.0024859</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1067887</v>
+        <v>0.08533209999999999</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0012643</v>
+        <v>0.001143</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0092911</v>
+        <v>0.0048089</v>
       </c>
       <c r="H22" t="n">
-        <v>0.06332500000000001</v>
+        <v>23.5632896</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0073289</v>
+        <v>31.1274016</v>
       </c>
       <c r="J22" t="n">
         <v>10</v>
       </c>
       <c r="K22" t="n">
-        <v>0.3950758001301438</v>
-      </c>
-      <c r="L22" t="inlineStr"/>
+        <v>56.79417919996195</v>
+      </c>
+      <c r="L22" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1374,7 +1366,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1382,31 +1374,31 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.0026286</v>
+        <v>0.0025554</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1029948</v>
+        <v>0.0805737</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0012881</v>
+        <v>0.0010249</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0171167</v>
+        <v>0.0066319</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1237738</v>
+        <v>28.8672664</v>
       </c>
       <c r="I23" t="n">
-        <v>0.030441</v>
+        <v>35.3212243</v>
       </c>
       <c r="J23" t="n">
         <v>11</v>
       </c>
       <c r="K23" t="n">
-        <v>0.8848647000268102</v>
+        <v>123.6332167999353</v>
       </c>
       <c r="L23" t="n">
-        <v>4</v>
+        <v>443</v>
       </c>
     </row>
     <row r="24">
@@ -1416,7 +1408,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1424,32 +1416,30 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.0023187</v>
+        <v>0.0026626</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0928686</v>
+        <v>0.0882083</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0012719</v>
+        <v>0.0010288</v>
       </c>
       <c r="G24" t="n">
-        <v>0.025682</v>
+        <v>0.0052681</v>
       </c>
       <c r="H24" t="n">
-        <v>0.3085487</v>
+        <v>28.8971461</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1022184</v>
+        <v>43.4893763</v>
       </c>
       <c r="J24" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K24" t="n">
-        <v>1.641278099967167</v>
-      </c>
-      <c r="L24" t="n">
-        <v>2345</v>
-      </c>
+        <v>75.17585229990073</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1458,7 +1448,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1466,30 +1456,32 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.0025137</v>
+        <v>0.020275</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1170613</v>
+        <v>0.1571465</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0014065</v>
+        <v>0.0016518</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0119862</v>
+        <v>0.0137482</v>
       </c>
       <c r="H25" t="n">
-        <v>0.08606220000000001</v>
+        <v>30.508767</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0131323</v>
+        <v>48.0668495</v>
       </c>
       <c r="J25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K25" t="n">
-        <v>0.4653682000935078</v>
-      </c>
-      <c r="L25" t="inlineStr"/>
+        <v>157.4195576999336</v>
+      </c>
+      <c r="L25" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1498,7 +1490,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1506,31 +1498,31 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.0027332</v>
+        <v>0.0032627</v>
       </c>
       <c r="E26" t="n">
-        <v>0.119299</v>
+        <v>0.1138275</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0014672</v>
+        <v>0.0013785</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0178936</v>
+        <v>0.0199168</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1690948</v>
+        <v>32.7739368</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0612237</v>
+        <v>53.1740977</v>
       </c>
       <c r="J26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K26" t="n">
-        <v>1.087701900163665</v>
+        <v>247.3109510999639</v>
       </c>
       <c r="L26" t="n">
-        <v>4</v>
+        <v>750</v>
       </c>
     </row>
     <row r="27">
@@ -1540,7 +1532,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1548,32 +1540,30 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.0049618</v>
+        <v>0.0028775</v>
       </c>
       <c r="E27" t="n">
-        <v>0.134063</v>
+        <v>0.0826707</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0015952</v>
+        <v>0.0010818</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0336743</v>
+        <v>0.0059875</v>
       </c>
       <c r="H27" t="n">
-        <v>0.3935703</v>
+        <v>32.0677481</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1277394</v>
+        <v>57.1328913</v>
       </c>
       <c r="J27" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K27" t="n">
-        <v>2.078889600234106</v>
-      </c>
-      <c r="L27" t="n">
-        <v>3521</v>
-      </c>
+        <v>92.68460389995016</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1582,7 +1572,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1590,30 +1580,32 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.0024503</v>
+        <v>0.0025014</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1078646</v>
+        <v>0.0995788</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0012519</v>
+        <v>0.0013376</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0108387</v>
+        <v>0.009502699999999999</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0785888</v>
+        <v>34.1416542</v>
       </c>
       <c r="I28" t="n">
-        <v>0.010731</v>
+        <v>62.6132126</v>
       </c>
       <c r="J28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K28" t="n">
-        <v>0.4353467000182718</v>
-      </c>
-      <c r="L28" t="inlineStr"/>
+        <v>193.7010483001359</v>
+      </c>
+      <c r="L28" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1622,40 +1614,26 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
           <t>A_priority1</t>
         </is>
       </c>
-      <c r="D29" t="n">
-        <v>0.0026435</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.1064777</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.0013448</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.0215984</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.1691718</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0.0428928</v>
-      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K29" t="n">
-        <v>1.015067800180987</v>
-      </c>
-      <c r="L29" t="n">
-        <v>5</v>
-      </c>
+        <v>300.0189789000433</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1664,7 +1642,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1672,32 +1650,30 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.002482</v>
+        <v>0.0226286</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1107546</v>
+        <v>0.1273532</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0013577</v>
+        <v>0.0013565</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0357081</v>
+        <v>0.0015903</v>
       </c>
       <c r="H30" t="n">
-        <v>0.3869627</v>
+        <v>0.2283824</v>
       </c>
       <c r="I30" t="n">
-        <v>0.1302956</v>
+        <v>0.1236058</v>
       </c>
       <c r="J30" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K30" t="n">
-        <v>1.929113400168717</v>
-      </c>
-      <c r="L30" t="n">
-        <v>3581</v>
-      </c>
+        <v>0.7817236001137644</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1706,7 +1682,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1714,28 +1690,28 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.002421</v>
+        <v>0.0049179</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1052779</v>
+        <v>0.2315644</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0012274</v>
+        <v>0.002203</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0138258</v>
+        <v>0.0040475</v>
       </c>
       <c r="H31" t="n">
-        <v>0.08044800000000001</v>
+        <v>0.4178165</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0088488</v>
+        <v>0.3095624</v>
       </c>
       <c r="J31" t="n">
         <v>10</v>
       </c>
       <c r="K31" t="n">
-        <v>0.4290038999170065</v>
+        <v>1.323871900094673</v>
       </c>
       <c r="L31" t="inlineStr"/>
     </row>
@@ -1746,7 +1722,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1754,32 +1730,30 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.0027119</v>
+        <v>0.0044871</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1092993</v>
+        <v>0.1749406</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0013377</v>
+        <v>0.0014893</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0204649</v>
+        <v>0.0030854</v>
       </c>
       <c r="H32" t="n">
-        <v>0.1949313</v>
+        <v>0.5488382000000001</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0476225</v>
+        <v>0.4425703</v>
       </c>
       <c r="J32" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K32" t="n">
-        <v>1.030006499961019</v>
-      </c>
-      <c r="L32" t="n">
-        <v>5</v>
-      </c>
+        <v>1.449894299963489</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1788,7 +1762,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1796,32 +1770,30 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.002441</v>
+        <v>0.0045648</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1051497</v>
+        <v>0.1038671</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0014222</v>
+        <v>0.0013763</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0353841</v>
+        <v>0.0038709</v>
       </c>
       <c r="H33" t="n">
-        <v>0.4030795</v>
+        <v>0.5489412</v>
       </c>
       <c r="I33" t="n">
-        <v>0.144104</v>
+        <v>0.4605544</v>
       </c>
       <c r="J33" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K33" t="n">
-        <v>2.034278699895367</v>
-      </c>
-      <c r="L33" t="n">
-        <v>2795</v>
-      </c>
+        <v>1.408256400143728</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1830,7 +1802,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1838,28 +1810,28 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.0030356</v>
+        <v>0.0025796</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1194285</v>
+        <v>0.0830717</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0013863</v>
+        <v>0.0011451</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0111842</v>
+        <v>0.0049028</v>
       </c>
       <c r="H34" t="n">
-        <v>0.08510479999999999</v>
+        <v>0.7476564</v>
       </c>
       <c r="I34" t="n">
-        <v>0.009029199999999999</v>
+        <v>0.5345803</v>
       </c>
       <c r="J34" t="n">
         <v>10</v>
       </c>
       <c r="K34" t="n">
-        <v>0.4450165000744164</v>
+        <v>1.608644100138918</v>
       </c>
       <c r="L34" t="inlineStr"/>
     </row>
@@ -1870,7 +1842,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1878,32 +1850,30 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.0024302</v>
+        <v>0.0036299</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0924599</v>
+        <v>0.1390844</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0011814</v>
+        <v>0.0018064</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0239429</v>
+        <v>0.0115742</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1807459</v>
+        <v>0.9231215</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0544435</v>
+        <v>0.6080601</v>
       </c>
       <c r="J35" t="n">
         <v>11</v>
       </c>
       <c r="K35" t="n">
-        <v>1.030885600019246</v>
-      </c>
-      <c r="L35" t="n">
-        <v>10</v>
-      </c>
+        <v>3.649528299923986</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1912,7 +1882,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1920,32 +1890,30 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.0025212</v>
+        <v>0.0027399</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1104126</v>
+        <v>0.1004992</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0014717</v>
+        <v>0.0014839</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0416678</v>
+        <v>0.0067637</v>
       </c>
       <c r="H36" t="n">
-        <v>0.4669102</v>
+        <v>0.9474747</v>
       </c>
       <c r="I36" t="n">
-        <v>0.1412638</v>
+        <v>0.5026536</v>
       </c>
       <c r="J36" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K36" t="n">
-        <v>2.045177299994975</v>
-      </c>
-      <c r="L36" t="n">
-        <v>4012</v>
-      </c>
+        <v>1.812663500197232</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1954,7 +1922,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1962,28 +1930,28 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.0023877</v>
+        <v>0.0028168</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1018195</v>
+        <v>0.08757239999999999</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0014836</v>
+        <v>0.0010996</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0134799</v>
+        <v>0.007902599999999999</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0978887</v>
+        <v>1.0339419</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0106783</v>
+        <v>0.6337299</v>
       </c>
       <c r="J37" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K37" t="n">
-        <v>0.4377997999545187</v>
+        <v>3.835495300125331</v>
       </c>
       <c r="L37" t="inlineStr"/>
     </row>
@@ -1994,7 +1962,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -2002,32 +1970,30 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.0023766</v>
+        <v>0.0043851</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0905594</v>
+        <v>0.1342719</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0011192</v>
+        <v>0.0018249</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0195315</v>
+        <v>0.0071184</v>
       </c>
       <c r="H38" t="n">
-        <v>0.1648418</v>
+        <v>0.9080822</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0481523</v>
+        <v>0.1175691</v>
       </c>
       <c r="J38" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K38" t="n">
-        <v>0.984831899870187</v>
-      </c>
-      <c r="L38" t="n">
-        <v>4</v>
-      </c>
+        <v>1.425378000130877</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2036,7 +2002,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -2044,32 +2010,30 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.002271</v>
+        <v>0.0026941</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0890585</v>
+        <v>0.0928411</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0012513</v>
+        <v>0.0010519</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0359047</v>
+        <v>0.0086265</v>
       </c>
       <c r="H39" t="n">
-        <v>0.4562074</v>
+        <v>1.0925471</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1486404</v>
+        <v>0.4820362</v>
       </c>
       <c r="J39" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K39" t="n">
-        <v>1.960092199966311</v>
-      </c>
-      <c r="L39" t="n">
-        <v>4643</v>
-      </c>
+        <v>3.362690000096336</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2078,7 +2042,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -2086,28 +2050,28 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.0024756</v>
+        <v>0.002344</v>
       </c>
       <c r="E40" t="n">
-        <v>0.1032947</v>
+        <v>0.0925648</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0015184</v>
+        <v>0.0012327</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0153073</v>
+        <v>0.0170563</v>
       </c>
       <c r="H40" t="n">
-        <v>0.1075157</v>
+        <v>2.40333</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0107985</v>
+        <v>1.4112376</v>
       </c>
       <c r="J40" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K40" t="n">
-        <v>0.4671878998633474</v>
+        <v>7.638631600188091</v>
       </c>
       <c r="L40" t="inlineStr"/>
     </row>
@@ -2118,7 +2082,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -2126,32 +2090,30 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.0027135</v>
+        <v>0.0033007</v>
       </c>
       <c r="E41" t="n">
-        <v>0.1164406</v>
+        <v>0.1357684</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001451</v>
+        <v>0.0019567</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0260022</v>
+        <v>0.012851</v>
       </c>
       <c r="H41" t="n">
-        <v>0.2272243</v>
+        <v>1.0760039</v>
       </c>
       <c r="I41" t="n">
-        <v>0.0564554</v>
+        <v>0.1391308</v>
       </c>
       <c r="J41" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K41" t="n">
-        <v>1.15439819986932</v>
-      </c>
-      <c r="L41" t="n">
-        <v>2</v>
-      </c>
+        <v>1.625210399972275</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2160,7 +2122,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -2168,32 +2130,30 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.0024389</v>
+        <v>0.0028137</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0970451</v>
+        <v>0.09849620000000001</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0011336</v>
+        <v>0.0014221</v>
       </c>
       <c r="G42" t="n">
-        <v>0.035675</v>
+        <v>0.0117239</v>
       </c>
       <c r="H42" t="n">
-        <v>0.4902185</v>
+        <v>2.5206758</v>
       </c>
       <c r="I42" t="n">
-        <v>0.1795334</v>
+        <v>0.6419211</v>
       </c>
       <c r="J42" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K42" t="n">
-        <v>2.20116369985044</v>
-      </c>
-      <c r="L42" t="n">
-        <v>5523</v>
-      </c>
+        <v>5.288950599962845</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2202,7 +2162,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -2210,28 +2170,28 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.0026924</v>
+        <v>0.003933</v>
       </c>
       <c r="E43" t="n">
-        <v>0.1026378</v>
+        <v>0.1455436</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0011683</v>
+        <v>0.0017399</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0123138</v>
+        <v>0.0253606</v>
       </c>
       <c r="H43" t="n">
-        <v>0.1086304</v>
+        <v>2.9054374</v>
       </c>
       <c r="I43" t="n">
-        <v>0.0148968</v>
+        <v>1.4825304</v>
       </c>
       <c r="J43" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K43" t="n">
-        <v>0.4729946001898497</v>
+        <v>10.36529809981585</v>
       </c>
       <c r="L43" t="inlineStr"/>
     </row>
@@ -2242,7 +2202,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -2250,32 +2210,30 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.0029108</v>
+        <v>0.0029809</v>
       </c>
       <c r="E44" t="n">
-        <v>0.1045342</v>
+        <v>0.09124060000000001</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0013403</v>
+        <v>0.0010578</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0272316</v>
+        <v>0.0070978</v>
       </c>
       <c r="H44" t="n">
-        <v>0.2445547</v>
+        <v>1.1568003</v>
       </c>
       <c r="I44" t="n">
-        <v>0.0662879</v>
+        <v>0.1896603</v>
       </c>
       <c r="J44" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K44" t="n">
-        <v>1.171992800198495</v>
-      </c>
-      <c r="L44" t="n">
-        <v>7</v>
-      </c>
+        <v>1.713765300111845</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2284,7 +2242,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -2292,32 +2250,30 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.0033359</v>
+        <v>0.0028711</v>
       </c>
       <c r="E45" t="n">
-        <v>0.1240367</v>
+        <v>0.0960896</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0012388</v>
+        <v>0.0013425</v>
       </c>
       <c r="G45" t="n">
-        <v>0.049914</v>
+        <v>0.0130849</v>
       </c>
       <c r="H45" t="n">
-        <v>0.5987077</v>
+        <v>2.6565947</v>
       </c>
       <c r="I45" t="n">
-        <v>0.1834625</v>
+        <v>0.7656321</v>
       </c>
       <c r="J45" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K45" t="n">
-        <v>2.408483000239357</v>
-      </c>
-      <c r="L45" t="n">
-        <v>4189</v>
-      </c>
+        <v>5.687396300258115</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2326,7 +2282,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -2334,28 +2290,28 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.0027078</v>
+        <v>0.002906</v>
       </c>
       <c r="E46" t="n">
-        <v>0.131907</v>
+        <v>0.1108064</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0015303</v>
+        <v>0.0012682</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0198692</v>
+        <v>0.0253024</v>
       </c>
       <c r="H46" t="n">
-        <v>0.1472449</v>
+        <v>3.3107788</v>
       </c>
       <c r="I46" t="n">
-        <v>0.018314</v>
+        <v>1.4884056</v>
       </c>
       <c r="J46" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K46" t="n">
-        <v>0.6039594998583198</v>
+        <v>11.06756060011685</v>
       </c>
       <c r="L46" t="inlineStr"/>
     </row>
@@ -2366,7 +2322,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -2374,32 +2330,30 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.0029121</v>
+        <v>0.0037801</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1172561</v>
+        <v>0.1241566</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0014836</v>
+        <v>0.0011953</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0296681</v>
+        <v>0.008124599999999999</v>
       </c>
       <c r="H47" t="n">
-        <v>0.2465367</v>
+        <v>2.3928569</v>
       </c>
       <c r="I47" t="n">
-        <v>0.0816534</v>
+        <v>0.2360914</v>
       </c>
       <c r="J47" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K47" t="n">
-        <v>1.355227999854833</v>
-      </c>
-      <c r="L47" t="n">
-        <v>26</v>
-      </c>
+        <v>3.169687099987641</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2408,7 +2362,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -2416,32 +2370,30 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.0027484</v>
+        <v>0.0036151</v>
       </c>
       <c r="E48" t="n">
-        <v>0.1017837</v>
+        <v>0.120265</v>
       </c>
       <c r="F48" t="n">
-        <v>0.001417</v>
+        <v>0.0014374</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0427241</v>
+        <v>0.0144875</v>
       </c>
       <c r="H48" t="n">
-        <v>0.5634394</v>
+        <v>3.1357529</v>
       </c>
       <c r="I48" t="n">
-        <v>0.2029857</v>
+        <v>0.7770016</v>
       </c>
       <c r="J48" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K48" t="n">
-        <v>2.548651499673724</v>
-      </c>
-      <c r="L48" t="n">
-        <v>6265</v>
-      </c>
+        <v>7.652154099894688</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2450,7 +2402,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -2458,28 +2410,28 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.0024181</v>
+        <v>0.0029569</v>
       </c>
       <c r="E49" t="n">
-        <v>0.092586</v>
+        <v>0.0943983</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0010867</v>
+        <v>0.0012101</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0154366</v>
+        <v>0.0226738</v>
       </c>
       <c r="H49" t="n">
-        <v>0.1171042</v>
+        <v>3.3960377</v>
       </c>
       <c r="I49" t="n">
-        <v>0.0138454</v>
+        <v>1.4310031</v>
       </c>
       <c r="J49" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K49" t="n">
-        <v>0.4670116000343114</v>
+        <v>13.02779559977353</v>
       </c>
       <c r="L49" t="inlineStr"/>
     </row>
@@ -2490,7 +2442,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -2498,32 +2450,30 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.0022427</v>
+        <v>0.0027045</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0891704</v>
+        <v>0.1088476</v>
       </c>
       <c r="F50" t="n">
-        <v>0.001486</v>
+        <v>0.0017925</v>
       </c>
       <c r="G50" t="n">
-        <v>0.022559</v>
+        <v>0.0104977</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2286706</v>
+        <v>2.7430216</v>
       </c>
       <c r="I50" t="n">
-        <v>0.07112599999999999</v>
+        <v>0.1862126</v>
       </c>
       <c r="J50" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K50" t="n">
-        <v>1.10936150001362</v>
-      </c>
-      <c r="L50" t="n">
-        <v>28</v>
-      </c>
+        <v>3.410770099842921</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2532,39 +2482,5229 @@
         </is>
       </c>
       <c r="B51" t="n">
+        <v>55</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>0.0032852</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.1263458</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.001822</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.0265809</v>
+      </c>
+      <c r="H51" t="n">
+        <v>3.3952232</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.8333174</v>
+      </c>
+      <c r="J51" t="n">
+        <v>11</v>
+      </c>
+      <c r="K51" t="n">
+        <v>8.257745799841359</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>55</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>0.0026492</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.0865151</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.001104</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.0258852</v>
+      </c>
+      <c r="H52" t="n">
+        <v>3.7748854</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1.6758497</v>
+      </c>
+      <c r="J52" t="n">
+        <v>12</v>
+      </c>
+      <c r="K52" t="n">
+        <v>14.26516489987262</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>60</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>0.004374</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.1382398</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.0019056</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.0114479</v>
+      </c>
+      <c r="H53" t="n">
+        <v>2.8795003</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.1976915</v>
+      </c>
+      <c r="J53" t="n">
+        <v>10</v>
+      </c>
+      <c r="K53" t="n">
+        <v>3.611158499959856</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>60</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>0.0033804</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.0887931</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.0009875000000000001</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.0128605</v>
+      </c>
+      <c r="H54" t="n">
+        <v>3.4785226</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.9453061</v>
+      </c>
+      <c r="J54" t="n">
+        <v>11</v>
+      </c>
+      <c r="K54" t="n">
+        <v>8.650929499883205</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>60</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>0.0034271</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.138455</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.0013585</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.033342</v>
+      </c>
+      <c r="H55" t="n">
+        <v>4.3652392</v>
+      </c>
+      <c r="I55" t="n">
+        <v>2.1534756</v>
+      </c>
+      <c r="J55" t="n">
+        <v>12</v>
+      </c>
+      <c r="K55" t="n">
+        <v>15.87940109986812</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>65</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>0.0024867</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.0946598</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.001148</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.0099816</v>
+      </c>
+      <c r="H56" t="n">
+        <v>2.8860112</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.2292372</v>
+      </c>
+      <c r="J56" t="n">
+        <v>10</v>
+      </c>
+      <c r="K56" t="n">
+        <v>3.626660300185904</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>65</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>0.0039652</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.1453095</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.0021569</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.0322501</v>
+      </c>
+      <c r="H57" t="n">
+        <v>3.4601227</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.9988697</v>
+      </c>
+      <c r="J57" t="n">
+        <v>11</v>
+      </c>
+      <c r="K57" t="n">
+        <v>8.728860200149938</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>65</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>0.0028463</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.097928</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.0010317</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.0246608</v>
+      </c>
+      <c r="H58" t="n">
+        <v>4.0614662</v>
+      </c>
+      <c r="I58" t="n">
+        <v>2.6232571</v>
+      </c>
+      <c r="J58" t="n">
+        <v>12</v>
+      </c>
+      <c r="K58" t="n">
+        <v>16.09028450027108</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>70</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>0.0028035</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.0855834</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.0011131</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.009154300000000001</v>
+      </c>
+      <c r="H59" t="n">
+        <v>3.1702931</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.305145</v>
+      </c>
+      <c r="J59" t="n">
+        <v>10</v>
+      </c>
+      <c r="K59" t="n">
+        <v>3.988510200055316</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>70</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>0.0025253</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.0893452</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.0012902</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.0225922</v>
+      </c>
+      <c r="H60" t="n">
+        <v>3.8522159</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1.0343985</v>
+      </c>
+      <c r="J60" t="n">
+        <v>11</v>
+      </c>
+      <c r="K60" t="n">
+        <v>9.462509900098667</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>70</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>0.0036637</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.1017225</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.0012997</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.0291128</v>
+      </c>
+      <c r="H61" t="n">
+        <v>5.0501266</v>
+      </c>
+      <c r="I61" t="n">
+        <v>3.51848</v>
+      </c>
+      <c r="J61" t="n">
+        <v>12</v>
+      </c>
+      <c r="K61" t="n">
+        <v>18.84409029991366</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>75</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>0.0030887</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.1208638</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.0025518</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.0184002</v>
+      </c>
+      <c r="H62" t="n">
+        <v>3.4016279</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.2324706</v>
+      </c>
+      <c r="J62" t="n">
+        <v>10</v>
+      </c>
+      <c r="K62" t="n">
+        <v>4.20259159989655</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>75</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>0.0035318</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.1148202</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.0013761</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.0177811</v>
+      </c>
+      <c r="H63" t="n">
+        <v>3.847495</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1.0702802</v>
+      </c>
+      <c r="J63" t="n">
+        <v>11</v>
+      </c>
+      <c r="K63" t="n">
+        <v>9.79460239992477</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>75</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>0.0037935</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.11527</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.0015346</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.0480313</v>
+      </c>
+      <c r="H64" t="n">
+        <v>6.4124448</v>
+      </c>
+      <c r="I64" t="n">
+        <v>3.8045158</v>
+      </c>
+      <c r="J64" t="n">
+        <v>12</v>
+      </c>
+      <c r="K64" t="n">
+        <v>20.79918479989283</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>80</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>0.0028896</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.0925232</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.0010119</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.0121069</v>
+      </c>
+      <c r="H65" t="n">
+        <v>3.6009933</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.0816592</v>
+      </c>
+      <c r="J65" t="n">
+        <v>10</v>
+      </c>
+      <c r="K65" t="n">
+        <v>4.194519399898127</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>80</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>0.002583</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.07979700000000001</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.0009164</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.0179609</v>
+      </c>
+      <c r="H66" t="n">
+        <v>4.3512951</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1.2446355</v>
+      </c>
+      <c r="J66" t="n">
+        <v>11</v>
+      </c>
+      <c r="K66" t="n">
+        <v>10.39559479989111</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>80</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>0.0024843</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.0848057</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.0011905</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.034118</v>
+      </c>
+      <c r="H67" t="n">
+        <v>5.3767873</v>
+      </c>
+      <c r="I67" t="n">
+        <v>3.2077699</v>
+      </c>
+      <c r="J67" t="n">
+        <v>12</v>
+      </c>
+      <c r="K67" t="n">
+        <v>19.68123549991287</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>85</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>0.0030641</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.0919517</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.0012551</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.0140156</v>
+      </c>
+      <c r="H68" t="n">
+        <v>4.0537577</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.0922854</v>
+      </c>
+      <c r="J68" t="n">
+        <v>10</v>
+      </c>
+      <c r="K68" t="n">
+        <v>4.68630599998869</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>85</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>0.002691</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.0866001</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.0012728</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.0206093</v>
+      </c>
+      <c r="H69" t="n">
+        <v>4.7842116</v>
+      </c>
+      <c r="I69" t="n">
+        <v>1.2789253</v>
+      </c>
+      <c r="J69" t="n">
+        <v>11</v>
+      </c>
+      <c r="K69" t="n">
+        <v>11.57889669993892</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>85</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>0.0044655</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.1407531</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.0016236</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.04864</v>
+      </c>
+      <c r="H70" t="n">
+        <v>8.4174536</v>
+      </c>
+      <c r="I70" t="n">
+        <v>3.3832865</v>
+      </c>
+      <c r="J70" t="n">
+        <v>12</v>
+      </c>
+      <c r="K70" t="n">
+        <v>24.25051019992679</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>90</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>0.0028466</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.0865697</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.0010378</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.013701</v>
+      </c>
+      <c r="H71" t="n">
+        <v>4.0435784</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.0973594</v>
+      </c>
+      <c r="J71" t="n">
+        <v>10</v>
+      </c>
+      <c r="K71" t="n">
+        <v>4.709979200037196</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>90</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>0.0026348</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.09691039999999999</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.0009748</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.0190121</v>
+      </c>
+      <c r="H72" t="n">
+        <v>5.1896622</v>
+      </c>
+      <c r="I72" t="n">
+        <v>1.5297379</v>
+      </c>
+      <c r="J72" t="n">
+        <v>11</v>
+      </c>
+      <c r="K72" t="n">
+        <v>12.1187348999083</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>90</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>0.0027882</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.0924108</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.0012261</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.0416091</v>
+      </c>
+      <c r="H73" t="n">
+        <v>8.1789316</v>
+      </c>
+      <c r="I73" t="n">
+        <v>3.6208532</v>
+      </c>
+      <c r="J73" t="n">
+        <v>12</v>
+      </c>
+      <c r="K73" t="n">
+        <v>24.72784449975006</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>95</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>0.0033072</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.1162579</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.0013993</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.0191629</v>
+      </c>
+      <c r="H74" t="n">
+        <v>4.7099377</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.1042215</v>
+      </c>
+      <c r="J74" t="n">
+        <v>10</v>
+      </c>
+      <c r="K74" t="n">
+        <v>5.461754000047222</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>95</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>0.0037299</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.126233</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.0012349</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.0221155</v>
+      </c>
+      <c r="H75" t="n">
+        <v>7.2533363</v>
+      </c>
+      <c r="I75" t="n">
+        <v>1.670257</v>
+      </c>
+      <c r="J75" t="n">
+        <v>11</v>
+      </c>
+      <c r="K75" t="n">
+        <v>15.5053146998398</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>95</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>0.0048135</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.2139814</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.0032864</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.0660737</v>
+      </c>
+      <c r="H76" t="n">
+        <v>8.849054499999999</v>
+      </c>
+      <c r="I76" t="n">
+        <v>4.1628952</v>
+      </c>
+      <c r="J76" t="n">
+        <v>12</v>
+      </c>
+      <c r="K76" t="n">
+        <v>29.6926022998523</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
         <v>100</v>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>A_priority1</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>0.0031308</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.1234805</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0.0016688</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0.0561558</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0.6342833</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0.2424954</v>
-      </c>
-      <c r="J51" t="n">
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>0.002873</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.0868536</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.0009862</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.0156206</v>
+      </c>
+      <c r="H77" t="n">
+        <v>7.4811428</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.1388832</v>
+      </c>
+      <c r="J77" t="n">
+        <v>10</v>
+      </c>
+      <c r="K77" t="n">
+        <v>8.219161299988627</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>100</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>0.0029835</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.1155071</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.0015411</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.0444407</v>
+      </c>
+      <c r="H78" t="n">
+        <v>9.086825599999999</v>
+      </c>
+      <c r="I78" t="n">
+        <v>1.6113815</v>
+      </c>
+      <c r="J78" t="n">
+        <v>11</v>
+      </c>
+      <c r="K78" t="n">
+        <v>19.78835859987885</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>100</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>0.0029492</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.0939044</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.0013451</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.0462058</v>
+      </c>
+      <c r="H79" t="n">
+        <v>10.8526079</v>
+      </c>
+      <c r="I79" t="n">
+        <v>6.0530451</v>
+      </c>
+      <c r="J79" t="n">
         <v>12</v>
       </c>
-      <c r="K51" t="n">
-        <v>2.475872999988496</v>
-      </c>
-      <c r="L51" t="n">
-        <v>6053</v>
+      <c r="K79" t="n">
+        <v>37.88179549993947</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>5</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>0.0365891</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.2420379</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.0030118</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.0026079</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.242422</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.1005363</v>
+      </c>
+      <c r="J80" t="n">
+        <v>10</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.9444444000255316</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>10</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>0.0050508</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.1186087</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.0014056</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.0023737</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.3023265</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.2406374</v>
+      </c>
+      <c r="J81" t="n">
+        <v>10</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.9679403000045568</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>15</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>0.0028505</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.0872373</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.0012086</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.0023968</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.380669</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.3843432</v>
+      </c>
+      <c r="J82" t="n">
+        <v>10</v>
+      </c>
+      <c r="K82" t="n">
+        <v>1.108068600064144</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>20</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>0.0028432</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.0975969</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.0012843</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.0037188</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.5759524</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.8792969</v>
+      </c>
+      <c r="J83" t="n">
+        <v>10</v>
+      </c>
+      <c r="K83" t="n">
+        <v>1.827073499793187</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>25</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>0.0026977</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.0931327</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.0012857</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.0047311</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.8416367</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.4920847</v>
+      </c>
+      <c r="J84" t="n">
+        <v>10</v>
+      </c>
+      <c r="K84" t="n">
+        <v>1.717549599939957</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>25</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>0.0034875</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.1399454</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.0015045</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.0103831</v>
+      </c>
+      <c r="H85" t="n">
+        <v>1.2721307</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.720242</v>
+      </c>
+      <c r="J85" t="n">
+        <v>11</v>
+      </c>
+      <c r="K85" t="n">
+        <v>4.248479699948803</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>30</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>0.0055814</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.1991923</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.0024197</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.0087244</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.9957533</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.7552795</v>
+      </c>
+      <c r="J86" t="n">
+        <v>10</v>
+      </c>
+      <c r="K86" t="n">
+        <v>2.391654200153425</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>30</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>0.0040231</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.1225043</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.0015438</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.011254</v>
+      </c>
+      <c r="H87" t="n">
+        <v>1.2193176</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.6992526999999999</v>
+      </c>
+      <c r="J87" t="n">
+        <v>11</v>
+      </c>
+      <c r="K87" t="n">
+        <v>4.756692400202155</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>35</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.1178323</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.0014418</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.0069149</v>
+      </c>
+      <c r="H88" t="n">
+        <v>1.0769765</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.1334838</v>
+      </c>
+      <c r="J88" t="n">
+        <v>10</v>
+      </c>
+      <c r="K88" t="n">
+        <v>1.702340400079265</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>35</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>0.0044646</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.0990181</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.0012336</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.0110776</v>
+      </c>
+      <c r="H89" t="n">
+        <v>1.3293703</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.5767237</v>
+      </c>
+      <c r="J89" t="n">
+        <v>11</v>
+      </c>
+      <c r="K89" t="n">
+        <v>4.041653100168332</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>35</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>0.0040944</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.1273491</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.0013165</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.0197358</v>
+      </c>
+      <c r="H90" t="n">
+        <v>3.138472</v>
+      </c>
+      <c r="I90" t="n">
+        <v>1.4873613</v>
+      </c>
+      <c r="J90" t="n">
+        <v>12</v>
+      </c>
+      <c r="K90" t="n">
+        <v>9.284077400108799</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>40</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>0.002848</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.09847069999999999</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.0011059</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.0062841</v>
+      </c>
+      <c r="H91" t="n">
+        <v>1.1372667</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.1730647</v>
+      </c>
+      <c r="J91" t="n">
+        <v>10</v>
+      </c>
+      <c r="K91" t="n">
+        <v>1.652235999936238</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>40</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>0.0023632</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.0942513</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.0010794</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.0109319</v>
+      </c>
+      <c r="H92" t="n">
+        <v>2.6097717</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.6119961</v>
+      </c>
+      <c r="J92" t="n">
+        <v>11</v>
+      </c>
+      <c r="K92" t="n">
+        <v>5.347657700069249</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>40</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>0.0033705</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.1060127</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.0012223</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.0229856</v>
+      </c>
+      <c r="H93" t="n">
+        <v>2.76188</v>
+      </c>
+      <c r="I93" t="n">
+        <v>1.6695824</v>
+      </c>
+      <c r="J93" t="n">
+        <v>12</v>
+      </c>
+      <c r="K93" t="n">
+        <v>10.3815642001573</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>45</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>0.0031634</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.1050666</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.0014199</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.0087172</v>
+      </c>
+      <c r="H94" t="n">
+        <v>1.2413088</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.1790069</v>
+      </c>
+      <c r="J94" t="n">
+        <v>10</v>
+      </c>
+      <c r="K94" t="n">
+        <v>1.819714399985969</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>45</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>0.0036211</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.1038944</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.0011273</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.0106097</v>
+      </c>
+      <c r="H95" t="n">
+        <v>2.4013893</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.7979384</v>
+      </c>
+      <c r="J95" t="n">
+        <v>11</v>
+      </c>
+      <c r="K95" t="n">
+        <v>5.572217599954456</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>45</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>0.0028488</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.0929241</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.0010618</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.0212966</v>
+      </c>
+      <c r="H96" t="n">
+        <v>4.361549</v>
+      </c>
+      <c r="I96" t="n">
+        <v>2.0524754</v>
+      </c>
+      <c r="J96" t="n">
+        <v>12</v>
+      </c>
+      <c r="K96" t="n">
+        <v>12.55436900001951</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>50</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>0.0034847</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.2834588</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.0042078</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.0323851</v>
+      </c>
+      <c r="H97" t="n">
+        <v>3.8333777</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.1972339</v>
+      </c>
+      <c r="J97" t="n">
+        <v>10</v>
+      </c>
+      <c r="K97" t="n">
+        <v>4.852922700112686</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>50</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>0.0030005</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.1198975</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.0015031</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.0182027</v>
+      </c>
+      <c r="H98" t="n">
+        <v>3.838465</v>
+      </c>
+      <c r="I98" t="n">
+        <v>1.1362924</v>
+      </c>
+      <c r="J98" t="n">
+        <v>11</v>
+      </c>
+      <c r="K98" t="n">
+        <v>10.71685340022668</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>50</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>0.0032512</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.109978</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.0012665</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.0240859</v>
+      </c>
+      <c r="H99" t="n">
+        <v>3.6015208</v>
+      </c>
+      <c r="I99" t="n">
+        <v>1.4137151</v>
+      </c>
+      <c r="J99" t="n">
+        <v>12</v>
+      </c>
+      <c r="K99" t="n">
+        <v>16.33922750037163</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>55</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>0.0027633</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.09825399999999999</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.0010773</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.0079116</v>
+      </c>
+      <c r="H100" t="n">
+        <v>2.6040387</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.2240305</v>
+      </c>
+      <c r="J100" t="n">
+        <v>10</v>
+      </c>
+      <c r="K100" t="n">
+        <v>3.296566199976951</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>55</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>0.0041843</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.1117606</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.0014856</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.0176261</v>
+      </c>
+      <c r="H101" t="n">
+        <v>3.990675</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.834201</v>
+      </c>
+      <c r="J101" t="n">
+        <v>11</v>
+      </c>
+      <c r="K101" t="n">
+        <v>8.708983199903741</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>55</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>0.0046106</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.1487948</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.0013996</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.0288953</v>
+      </c>
+      <c r="H102" t="n">
+        <v>4.7346669</v>
+      </c>
+      <c r="I102" t="n">
+        <v>1.7455225</v>
+      </c>
+      <c r="J102" t="n">
+        <v>12</v>
+      </c>
+      <c r="K102" t="n">
+        <v>15.89672259986401</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>60</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>0.0026991</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.08760850000000001</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.0012991</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.0104704</v>
+      </c>
+      <c r="H103" t="n">
+        <v>3.3078262</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.2197019</v>
+      </c>
+      <c r="J103" t="n">
+        <v>10</v>
+      </c>
+      <c r="K103" t="n">
+        <v>4.03622810007073</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>60</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>0.0036719</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.1148532</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.0014616</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.0190595</v>
+      </c>
+      <c r="H104" t="n">
+        <v>3.9878197</v>
+      </c>
+      <c r="I104" t="n">
+        <v>1.4979148</v>
+      </c>
+      <c r="J104" t="n">
+        <v>11</v>
+      </c>
+      <c r="K104" t="n">
+        <v>10.16338600008748</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>60</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>0.0031261</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.1345274</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.0016129</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.0418304</v>
+      </c>
+      <c r="H105" t="n">
+        <v>4.713084</v>
+      </c>
+      <c r="I105" t="n">
+        <v>2.3727831</v>
+      </c>
+      <c r="J105" t="n">
+        <v>12</v>
+      </c>
+      <c r="K105" t="n">
+        <v>17.98947959998623</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>65</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>0.0027696</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.0838971</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.0012839</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.0100808</v>
+      </c>
+      <c r="H106" t="n">
+        <v>3.2984749</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.2194306</v>
+      </c>
+      <c r="J106" t="n">
+        <v>10</v>
+      </c>
+      <c r="K106" t="n">
+        <v>4.043457000050694</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>65</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>0.0031401</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.1190691</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.0017874</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.0303526</v>
+      </c>
+      <c r="H107" t="n">
+        <v>4.4305605</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.9997395</v>
+      </c>
+      <c r="J107" t="n">
+        <v>11</v>
+      </c>
+      <c r="K107" t="n">
+        <v>10.1463492999319</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>65</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>0.0043259</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.1328878</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.0020962</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.0492882</v>
+      </c>
+      <c r="H108" t="n">
+        <v>5.1744</v>
+      </c>
+      <c r="I108" t="n">
+        <v>2.8582039</v>
+      </c>
+      <c r="J108" t="n">
+        <v>12</v>
+      </c>
+      <c r="K108" t="n">
+        <v>18.9257171000354</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>70</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>0.0029365</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.0980917</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.0012476</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.0094853</v>
+      </c>
+      <c r="H109" t="n">
+        <v>3.0927028</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0.2336183</v>
+      </c>
+      <c r="J109" t="n">
+        <v>10</v>
+      </c>
+      <c r="K109" t="n">
+        <v>3.839204400079325</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>70</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>0.0026704</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.08924749999999999</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.0012778</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.019175</v>
+      </c>
+      <c r="H110" t="n">
+        <v>4.0199315</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1.0645277</v>
+      </c>
+      <c r="J110" t="n">
+        <v>11</v>
+      </c>
+      <c r="K110" t="n">
+        <v>9.539384200004861</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>70</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>0.0028113</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.0971238</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.0012016</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.0342086</v>
+      </c>
+      <c r="H111" t="n">
+        <v>5.7233237</v>
+      </c>
+      <c r="I111" t="n">
+        <v>3.973334</v>
+      </c>
+      <c r="J111" t="n">
+        <v>12</v>
+      </c>
+      <c r="K111" t="n">
+        <v>20.08655599993654</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>75</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>0.0028023</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.1038972</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.0012807</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.0122769</v>
+      </c>
+      <c r="H112" t="n">
+        <v>3.5492676</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.2489381</v>
+      </c>
+      <c r="J112" t="n">
+        <v>10</v>
+      </c>
+      <c r="K112" t="n">
+        <v>4.355874100001529</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>75</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>0.0023826</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.0851977</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.0009700000000000001</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.0233673</v>
+      </c>
+      <c r="H113" t="n">
+        <v>4.1372865</v>
+      </c>
+      <c r="I113" t="n">
+        <v>1.202157</v>
+      </c>
+      <c r="J113" t="n">
+        <v>11</v>
+      </c>
+      <c r="K113" t="n">
+        <v>10.29317509988323</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>75</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>0.0029231</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.08240939999999999</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.001026</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.0333163</v>
+      </c>
+      <c r="H114" t="n">
+        <v>5.1951129</v>
+      </c>
+      <c r="I114" t="n">
+        <v>3.4662116</v>
+      </c>
+      <c r="J114" t="n">
+        <v>12</v>
+      </c>
+      <c r="K114" t="n">
+        <v>19.63919440004975</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>80</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>0.0028214</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.1085986</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.0014603</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.0113336</v>
+      </c>
+      <c r="H115" t="n">
+        <v>3.8327707</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.0898446</v>
+      </c>
+      <c r="J115" t="n">
+        <v>10</v>
+      </c>
+      <c r="K115" t="n">
+        <v>4.463990299962461</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>80</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>0.0034525</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.1449359</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.0018837</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.0316392</v>
+      </c>
+      <c r="H116" t="n">
+        <v>5.3955015</v>
+      </c>
+      <c r="I116" t="n">
+        <v>1.4460161</v>
+      </c>
+      <c r="J116" t="n">
+        <v>11</v>
+      </c>
+      <c r="K116" t="n">
+        <v>12.18513979995623</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>80</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>0.005053</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.1371177</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.0016685</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.0870812</v>
+      </c>
+      <c r="H117" t="n">
+        <v>6.7418371</v>
+      </c>
+      <c r="I117" t="n">
+        <v>4.3630727</v>
+      </c>
+      <c r="J117" t="n">
+        <v>12</v>
+      </c>
+      <c r="K117" t="n">
+        <v>24.34762290003709</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>85</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>0.0029273</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.1326981</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.0019433</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.0202043</v>
+      </c>
+      <c r="H118" t="n">
+        <v>5.0121767</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.1182294</v>
+      </c>
+      <c r="J118" t="n">
+        <v>10</v>
+      </c>
+      <c r="K118" t="n">
+        <v>5.836124700028449</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>85</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>0.0037441</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.1434724</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.0017305</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.0344952</v>
+      </c>
+      <c r="H119" t="n">
+        <v>6.0980491</v>
+      </c>
+      <c r="I119" t="n">
+        <v>1.6836217</v>
+      </c>
+      <c r="J119" t="n">
+        <v>11</v>
+      </c>
+      <c r="K119" t="n">
+        <v>14.53433550009504</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>85</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>0.0030226</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.1220721</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.0017839</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.0499618</v>
+      </c>
+      <c r="H120" t="n">
+        <v>8.789561000000001</v>
+      </c>
+      <c r="I120" t="n">
+        <v>3.167491</v>
+      </c>
+      <c r="J120" t="n">
+        <v>12</v>
+      </c>
+      <c r="K120" t="n">
+        <v>27.31191570009105</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>90</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>0.0024972</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.1279087</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.0018664</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.0214745</v>
+      </c>
+      <c r="H121" t="n">
+        <v>4.8832141</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0.1161266</v>
+      </c>
+      <c r="J121" t="n">
+        <v>10</v>
+      </c>
+      <c r="K121" t="n">
+        <v>5.655787599971518</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>90</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>0.0028327</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.1003585</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.0013486</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.0230395</v>
+      </c>
+      <c r="H122" t="n">
+        <v>6.1341981</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1.3809318</v>
+      </c>
+      <c r="J122" t="n">
+        <v>11</v>
+      </c>
+      <c r="K122" t="n">
+        <v>13.84219289990142</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>90</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>0.0027</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.090548</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.0011009</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.036926</v>
+      </c>
+      <c r="H123" t="n">
+        <v>7.7700657</v>
+      </c>
+      <c r="I123" t="n">
+        <v>3.6249839</v>
+      </c>
+      <c r="J123" t="n">
+        <v>12</v>
+      </c>
+      <c r="K123" t="n">
+        <v>25.98804689990357</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>95</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>0.0027341</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.0995217</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.0013239</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.0168217</v>
+      </c>
+      <c r="H124" t="n">
+        <v>4.1441389</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0.100448</v>
+      </c>
+      <c r="J124" t="n">
+        <v>10</v>
+      </c>
+      <c r="K124" t="n">
+        <v>4.839257800020278</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>95</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>0.0025759</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.0843237</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.0009523999999999999</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.0204489</v>
+      </c>
+      <c r="H125" t="n">
+        <v>7.5875297</v>
+      </c>
+      <c r="I125" t="n">
+        <v>1.7983548</v>
+      </c>
+      <c r="J125" t="n">
+        <v>11</v>
+      </c>
+      <c r="K125" t="n">
+        <v>14.93559310003184</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>95</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>0.0034712</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.0970466</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.0013101</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0.0475911</v>
+      </c>
+      <c r="H126" t="n">
+        <v>8.428362</v>
+      </c>
+      <c r="I126" t="n">
+        <v>3.7084316</v>
+      </c>
+      <c r="J126" t="n">
+        <v>12</v>
+      </c>
+      <c r="K126" t="n">
+        <v>27.91506909998134</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>100</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>0.0027052</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.07893120000000001</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.0010052</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.0127848</v>
+      </c>
+      <c r="H127" t="n">
+        <v>5.9779186</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0.107358</v>
+      </c>
+      <c r="J127" t="n">
+        <v>10</v>
+      </c>
+      <c r="K127" t="n">
+        <v>6.647327699931338</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>100</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>0.0027176</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.0827097</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.0009912</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.0222008</v>
+      </c>
+      <c r="H128" t="n">
+        <v>7.318921</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1.5972981</v>
+      </c>
+      <c r="J128" t="n">
+        <v>11</v>
+      </c>
+      <c r="K128" t="n">
+        <v>16.26573890005238</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>100</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>0.0030013</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.1007352</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.0011173</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.0392755</v>
+      </c>
+      <c r="H129" t="n">
+        <v>8.5456752</v>
+      </c>
+      <c r="I129" t="n">
+        <v>3.8697459</v>
+      </c>
+      <c r="J129" t="n">
+        <v>12</v>
+      </c>
+      <c r="K129" t="n">
+        <v>29.50898619997315</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>5</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>0.0044533</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.1028997</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.0014345</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.0009567999999999999</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0.2289922</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0.09597749999999999</v>
+      </c>
+      <c r="J130" t="n">
+        <v>10</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0.6728052000980824</v>
+      </c>
+      <c r="L130" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>10</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>0.0037516</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.1127229</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.0015701</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0.0020166</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0.4534816</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0.247375</v>
+      </c>
+      <c r="J131" t="n">
+        <v>10</v>
+      </c>
+      <c r="K131" t="n">
+        <v>1.103574899956584</v>
+      </c>
+      <c r="L131" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>15</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>0.0079814</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.1330239</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.0012588</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0.0023853</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0.3951274</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0.230744</v>
+      </c>
+      <c r="J132" t="n">
+        <v>10</v>
+      </c>
+      <c r="K132" t="n">
+        <v>1.09773620008491</v>
+      </c>
+      <c r="L132" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>20</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>0.0033054</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.0963634</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.0012527</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0.0035286</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0.5629355</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0.3781572</v>
+      </c>
+      <c r="J133" t="n">
+        <v>10</v>
+      </c>
+      <c r="K133" t="n">
+        <v>1.275073499884456</v>
+      </c>
+      <c r="L133" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>25</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>0.0040026</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.1253608</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.0012486</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0.0038671</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0.6459447</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0.4355587</v>
+      </c>
+      <c r="J134" t="n">
+        <v>10</v>
+      </c>
+      <c r="K134" t="n">
+        <v>1.52798240003176</v>
+      </c>
+      <c r="L134" t="n">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>25</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>0.0026732</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.1008559</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.0011746</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.0073871</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1.1955802</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0.4804935</v>
+      </c>
+      <c r="J135" t="n">
+        <v>11</v>
+      </c>
+      <c r="K135" t="n">
+        <v>3.589874100172892</v>
+      </c>
+      <c r="L135" t="n">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>30</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>0.0038427</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.132136</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.0013674</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.0059046</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0.7179171</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0.5776655000000001</v>
+      </c>
+      <c r="J136" t="n">
+        <v>10</v>
+      </c>
+      <c r="K136" t="n">
+        <v>1.731050200061873</v>
+      </c>
+      <c r="L136" t="n">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>30</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>0.0036508</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.1534196</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.0031253</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.0130749</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1.3502128</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0.7802544</v>
+      </c>
+      <c r="J137" t="n">
+        <v>11</v>
+      </c>
+      <c r="K137" t="n">
+        <v>4.482051200000569</v>
+      </c>
+      <c r="L137" t="n">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>35</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>0.0029378</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.1088374</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.0014912</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.0073322</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0.9204244</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0.1388274</v>
+      </c>
+      <c r="J138" t="n">
+        <v>10</v>
+      </c>
+      <c r="K138" t="n">
+        <v>1.536060499958694</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>35</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>0.0030934</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.0897511</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.0012275</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.0087481</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1.0721197</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0.5557991</v>
+      </c>
+      <c r="J139" t="n">
+        <v>11</v>
+      </c>
+      <c r="K139" t="n">
+        <v>3.555566699942574</v>
+      </c>
+      <c r="L139" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>35</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>0.0027537</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.1337034</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.0014443</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.0210365</v>
+      </c>
+      <c r="H140" t="n">
+        <v>2.6742972</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0.9174283</v>
+      </c>
+      <c r="J140" t="n">
+        <v>12</v>
+      </c>
+      <c r="K140" t="n">
+        <v>7.702944000018761</v>
+      </c>
+      <c r="L140" t="n">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>40</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>0.0030207</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.1169307</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.0012764</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.0058137</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1.5414087</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0.1486064</v>
+      </c>
+      <c r="J141" t="n">
+        <v>10</v>
+      </c>
+      <c r="K141" t="n">
+        <v>2.089635400101542</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>40</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>0.0028533</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.0986841</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.0016104</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0.0128456</v>
+      </c>
+      <c r="H142" t="n">
+        <v>2.8181434</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0.9822445</v>
+      </c>
+      <c r="J142" t="n">
+        <v>11</v>
+      </c>
+      <c r="K142" t="n">
+        <v>6.459297000197694</v>
+      </c>
+      <c r="L142" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>40</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>0.0026204</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.1027499</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.0013968</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0.0202661</v>
+      </c>
+      <c r="H143" t="n">
+        <v>2.8502768</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1.2401264</v>
+      </c>
+      <c r="J143" t="n">
+        <v>12</v>
+      </c>
+      <c r="K143" t="n">
+        <v>11.15555780031718</v>
+      </c>
+      <c r="L143" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>45</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>0.0035305</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.1194667</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.0018867</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0.0101112</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1.3204934</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0.1633472</v>
+      </c>
+      <c r="J144" t="n">
+        <v>10</v>
+      </c>
+      <c r="K144" t="n">
+        <v>1.904278399888426</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>45</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>0.002984</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.1173398</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.0015139</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.0154964</v>
+      </c>
+      <c r="H145" t="n">
+        <v>2.5724191</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0.77712</v>
+      </c>
+      <c r="J145" t="n">
+        <v>11</v>
+      </c>
+      <c r="K145" t="n">
+        <v>5.814171799924225</v>
+      </c>
+      <c r="L145" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>45</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>0.0028112</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.0878274</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.0011928</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0.0167337</v>
+      </c>
+      <c r="H146" t="n">
+        <v>3.8430516</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1.1451024</v>
+      </c>
+      <c r="J146" t="n">
+        <v>12</v>
+      </c>
+      <c r="K146" t="n">
+        <v>11.45124699990265</v>
+      </c>
+      <c r="L146" t="n">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>50</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>0.0033009</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.1294057</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.0012101</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.008152700000000001</v>
+      </c>
+      <c r="H147" t="n">
+        <v>2.9640286</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0.2466373</v>
+      </c>
+      <c r="J147" t="n">
+        <v>10</v>
+      </c>
+      <c r="K147" t="n">
+        <v>3.793763699941337</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>50</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>0.0046749</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.1441195</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.0026592</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.015795</v>
+      </c>
+      <c r="H148" t="n">
+        <v>3.6193594</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1.0466436</v>
+      </c>
+      <c r="J148" t="n">
+        <v>11</v>
+      </c>
+      <c r="K148" t="n">
+        <v>9.158917699940503</v>
+      </c>
+      <c r="L148" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>50</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>0.0030808</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.1817255</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.0024726</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0.0373109</v>
+      </c>
+      <c r="H149" t="n">
+        <v>5.4410163</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1.5364805</v>
+      </c>
+      <c r="J149" t="n">
+        <v>12</v>
+      </c>
+      <c r="K149" t="n">
+        <v>16.84121800004505</v>
+      </c>
+      <c r="L149" t="n">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>55</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>0.003037</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.1073671</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.0019913</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.0141062</v>
+      </c>
+      <c r="H150" t="n">
+        <v>2.612186</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0.2003893</v>
+      </c>
+      <c r="J150" t="n">
+        <v>10</v>
+      </c>
+      <c r="K150" t="n">
+        <v>3.362704400205985</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>55</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>0.0028005</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.0829066</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.0010812</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0.0139152</v>
+      </c>
+      <c r="H151" t="n">
+        <v>3.4234101</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0.9186722</v>
+      </c>
+      <c r="J151" t="n">
+        <v>11</v>
+      </c>
+      <c r="K151" t="n">
+        <v>8.256143700098619</v>
+      </c>
+      <c r="L151" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>55</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>0.004346</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.1327512</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.0012978</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.0340215</v>
+      </c>
+      <c r="H152" t="n">
+        <v>3.9347918</v>
+      </c>
+      <c r="I152" t="n">
+        <v>1.1020832</v>
+      </c>
+      <c r="J152" t="n">
+        <v>12</v>
+      </c>
+      <c r="K152" t="n">
+        <v>13.99385830014944</v>
+      </c>
+      <c r="L152" t="n">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>60</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>0.0036178</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.1257711</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.0021269</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0.0201532</v>
+      </c>
+      <c r="H153" t="n">
+        <v>2.8577298</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0.1907172</v>
+      </c>
+      <c r="J153" t="n">
+        <v>10</v>
+      </c>
+      <c r="K153" t="n">
+        <v>3.66152079985477</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>60</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>0.0035779</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.1337351</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.0024643</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0.0242647</v>
+      </c>
+      <c r="H154" t="n">
+        <v>3.4135813</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0.9356254000000001</v>
+      </c>
+      <c r="J154" t="n">
+        <v>11</v>
+      </c>
+      <c r="K154" t="n">
+        <v>8.733075299998745</v>
+      </c>
+      <c r="L154" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>60</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>0.0030262</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0.1045996</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.0013634</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0.0279274</v>
+      </c>
+      <c r="H155" t="n">
+        <v>4.2277122</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1.3212793</v>
+      </c>
+      <c r="J155" t="n">
+        <v>12</v>
+      </c>
+      <c r="K155" t="n">
+        <v>14.92188769998029</v>
+      </c>
+      <c r="L155" t="n">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>65</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>0.0027612</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0.0968248</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.0013496</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0.0116251</v>
+      </c>
+      <c r="H156" t="n">
+        <v>3.0259089</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0.2020354</v>
+      </c>
+      <c r="J156" t="n">
+        <v>10</v>
+      </c>
+      <c r="K156" t="n">
+        <v>3.717131499899551</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>65</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>0.0029816</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0.1111792</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.0014551</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0.0219279</v>
+      </c>
+      <c r="H157" t="n">
+        <v>4.1713591</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1.042234</v>
+      </c>
+      <c r="J157" t="n">
+        <v>11</v>
+      </c>
+      <c r="K157" t="n">
+        <v>9.53632939979434</v>
+      </c>
+      <c r="L157" t="n">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>65</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>0.0027565</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0.0827267</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.0010629</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0.0268423</v>
+      </c>
+      <c r="H158" t="n">
+        <v>4.2736531</v>
+      </c>
+      <c r="I158" t="n">
+        <v>1.4661688</v>
+      </c>
+      <c r="J158" t="n">
+        <v>12</v>
+      </c>
+      <c r="K158" t="n">
+        <v>15.91557889967225</v>
+      </c>
+      <c r="L158" t="n">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>70</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>0.0032031</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0.1188016</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0.0013467</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0.0135601</v>
+      </c>
+      <c r="H159" t="n">
+        <v>3.3128665</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0.2330454</v>
+      </c>
+      <c r="J159" t="n">
+        <v>10</v>
+      </c>
+      <c r="K159" t="n">
+        <v>4.087211399804801</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>70</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>0.0028125</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0.0857904</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0.0009358</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0.023421</v>
+      </c>
+      <c r="H160" t="n">
+        <v>5.5006403</v>
+      </c>
+      <c r="I160" t="n">
+        <v>1.0838061</v>
+      </c>
+      <c r="J160" t="n">
+        <v>11</v>
+      </c>
+      <c r="K160" t="n">
+        <v>11.27250329987146</v>
+      </c>
+      <c r="L160" t="n">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>70</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>0.0029037</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.1003935</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.0015864</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0.0436984</v>
+      </c>
+      <c r="H161" t="n">
+        <v>4.7588744</v>
+      </c>
+      <c r="I161" t="n">
+        <v>1.6657455</v>
+      </c>
+      <c r="J161" t="n">
+        <v>12</v>
+      </c>
+      <c r="K161" t="n">
+        <v>18.42086069984362</v>
+      </c>
+      <c r="L161" t="n">
+        <v>4206</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>75</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>0.0032405</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0.1118043</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.001332</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0.0111739</v>
+      </c>
+      <c r="H162" t="n">
+        <v>3.2923281</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0.2712304</v>
+      </c>
+      <c r="J162" t="n">
+        <v>10</v>
+      </c>
+      <c r="K162" t="n">
+        <v>4.165144699858502</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>75</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>0.0027243</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.0936493</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.0012156</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0.0171194</v>
+      </c>
+      <c r="H163" t="n">
+        <v>3.8980475</v>
+      </c>
+      <c r="I163" t="n">
+        <v>1.0548014</v>
+      </c>
+      <c r="J163" t="n">
+        <v>11</v>
+      </c>
+      <c r="K163" t="n">
+        <v>9.766618699766695</v>
+      </c>
+      <c r="L163" t="n">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>75</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>0.002454</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.0821596</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.0010899</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0.0325479</v>
+      </c>
+      <c r="H164" t="n">
+        <v>4.9720213</v>
+      </c>
+      <c r="I164" t="n">
+        <v>2.0827534</v>
+      </c>
+      <c r="J164" t="n">
+        <v>12</v>
+      </c>
+      <c r="K164" t="n">
+        <v>17.49591339984909</v>
+      </c>
+      <c r="L164" t="n">
+        <v>5024</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>80</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>0.0030163</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.1102548</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.0011484</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.0113761</v>
+      </c>
+      <c r="H165" t="n">
+        <v>3.87167</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0.08501069999999999</v>
+      </c>
+      <c r="J165" t="n">
+        <v>10</v>
+      </c>
+      <c r="K165" t="n">
+        <v>4.497099599801004</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>80</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>0.0026562</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.0990867</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.0010323</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0.0171154</v>
+      </c>
+      <c r="H166" t="n">
+        <v>4.7334157</v>
+      </c>
+      <c r="I166" t="n">
+        <v>1.3263399</v>
+      </c>
+      <c r="J166" t="n">
+        <v>11</v>
+      </c>
+      <c r="K166" t="n">
+        <v>11.20778079982847</v>
+      </c>
+      <c r="L166" t="n">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>80</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>0.002954</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.1026713</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.0016309</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0.0384455</v>
+      </c>
+      <c r="H167" t="n">
+        <v>5.5558084</v>
+      </c>
+      <c r="I167" t="n">
+        <v>2.5609372</v>
+      </c>
+      <c r="J167" t="n">
+        <v>12</v>
+      </c>
+      <c r="K167" t="n">
+        <v>20.12267889990471</v>
+      </c>
+      <c r="L167" t="n">
+        <v>8745</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>85</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>0.0027943</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.1036728</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.0010553</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0.0134505</v>
+      </c>
+      <c r="H168" t="n">
+        <v>4.7120001</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0.0957278</v>
+      </c>
+      <c r="J168" t="n">
+        <v>10</v>
+      </c>
+      <c r="K168" t="n">
+        <v>5.424611800117418</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>85</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>0.0026767</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.0823275</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.0010415</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0.0212395</v>
+      </c>
+      <c r="H169" t="n">
+        <v>5.2718846</v>
+      </c>
+      <c r="I169" t="n">
+        <v>1.4421944</v>
+      </c>
+      <c r="J169" t="n">
+        <v>11</v>
+      </c>
+      <c r="K169" t="n">
+        <v>12.81199930002913</v>
+      </c>
+      <c r="L169" t="n">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>85</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>0.0027027</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.0994099</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.0013754</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0.0489684</v>
+      </c>
+      <c r="H170" t="n">
+        <v>7.7098925</v>
+      </c>
+      <c r="I170" t="n">
+        <v>3.6595942</v>
+      </c>
+      <c r="J170" t="n">
+        <v>12</v>
+      </c>
+      <c r="K170" t="n">
+        <v>25.02369199995883</v>
+      </c>
+      <c r="L170" t="n">
+        <v>19362</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>90</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>0.0034382</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.1023574</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.0009808</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0.0119042</v>
+      </c>
+      <c r="H171" t="n">
+        <v>4.3074716</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0.1147502</v>
+      </c>
+      <c r="J171" t="n">
+        <v>10</v>
+      </c>
+      <c r="K171" t="n">
+        <v>5.108458499889821</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>90</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>0.0046371</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.1349368</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.0014559</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0.0385693</v>
+      </c>
+      <c r="H172" t="n">
+        <v>6.7579113</v>
+      </c>
+      <c r="I172" t="n">
+        <v>1.3452226</v>
+      </c>
+      <c r="J172" t="n">
+        <v>11</v>
+      </c>
+      <c r="K172" t="n">
+        <v>14.16516990005039</v>
+      </c>
+      <c r="L172" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>90</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>0.0036674</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0.101058</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0.0011366</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0.0491165</v>
+      </c>
+      <c r="H173" t="n">
+        <v>8.0301487</v>
+      </c>
+      <c r="I173" t="n">
+        <v>4.1548894</v>
+      </c>
+      <c r="J173" t="n">
+        <v>12</v>
+      </c>
+      <c r="K173" t="n">
+        <v>27.15513300010934</v>
+      </c>
+      <c r="L173" t="n">
+        <v>23316</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>95</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>0.0032648</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0.09412909999999999</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0.0012265</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0.0221039</v>
+      </c>
+      <c r="H174" t="n">
+        <v>4.6013011</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0.1139768</v>
+      </c>
+      <c r="J174" t="n">
+        <v>10</v>
+      </c>
+      <c r="K174" t="n">
+        <v>5.319348899880424</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>95</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>0.0027803</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0.1993554</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.0033511</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0.07362249999999999</v>
+      </c>
+      <c r="H175" t="n">
+        <v>7.3712924</v>
+      </c>
+      <c r="I175" t="n">
+        <v>1.5493483</v>
+      </c>
+      <c r="J175" t="n">
+        <v>11</v>
+      </c>
+      <c r="K175" t="n">
+        <v>15.18832859979011</v>
+      </c>
+      <c r="L175" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>95</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>0.0039448</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0.1070742</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0.0014502</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0.0515406</v>
+      </c>
+      <c r="H176" t="n">
+        <v>9.7772536</v>
+      </c>
+      <c r="I176" t="n">
+        <v>15.5073998</v>
+      </c>
+      <c r="J176" t="n">
+        <v>12</v>
+      </c>
+      <c r="K176" t="n">
+        <v>41.468934699893</v>
+      </c>
+      <c r="L176" t="n">
+        <v>108644</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>100</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>0.0025677</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0.0888941</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0.0009890000000000001</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0.0152081</v>
+      </c>
+      <c r="H177" t="n">
+        <v>6.7279182</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0.1197321</v>
+      </c>
+      <c r="J177" t="n">
+        <v>10</v>
+      </c>
+      <c r="K177" t="n">
+        <v>7.401968300109729</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>100</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>0.0037944</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0.1314443</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.0020038</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0.0564886</v>
+      </c>
+      <c r="H178" t="n">
+        <v>7.8295721</v>
+      </c>
+      <c r="I178" t="n">
+        <v>1.617141</v>
+      </c>
+      <c r="J178" t="n">
+        <v>11</v>
+      </c>
+      <c r="K178" t="n">
+        <v>17.6531581999734</v>
+      </c>
+      <c r="L178" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>empty-32-32-condensed-1</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>100</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>A_priority1</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>0.0028261</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0.0906645</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0.0009848000000000001</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0.0371246</v>
+      </c>
+      <c r="H179" t="n">
+        <v>10.7135971</v>
+      </c>
+      <c r="I179" t="n">
+        <v>38.8030772</v>
+      </c>
+      <c r="J179" t="n">
+        <v>12</v>
+      </c>
+      <c r="K179" t="n">
+        <v>68.18888720008545</v>
+      </c>
+      <c r="L179" t="n">
+        <v>213477</v>
       </c>
     </row>
   </sheetData>
